--- a/biology/Médecine/Moza_Sultan_Al_Kaabi/Moza_Sultan_Al_Kaabi.xlsx
+++ b/biology/Médecine/Moza_Sultan_Al_Kaabi/Moza_Sultan_Al_Kaabi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moza Sultan Al Kaabi, née à Fujaïrah et décédée le 20 août 2015 à Dubaï à l'âge de 31 ans[1], est une chirurgienne orthopédique émiratie[2].
-Après avoir vécu et étudié à Glasgow pour y apprendre l'anglais, elle étudie la médecine générale et la chirurgie en Chine (université médicale du Xinjiang). Elle se spécialise en orthopédie à l'université de Tianjin[2] et devient la première femme chirurgienne orthopédique aux Émirats arabes unis[3]. Elle travaille à l'hôpital militaire Zayed, à Abou Dabi, depuis 2007[1]. 
-Elle meurt dans un accident de la route[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moza Sultan Al Kaabi, née à Fujaïrah et décédée le 20 août 2015 à Dubaï à l'âge de 31 ans, est une chirurgienne orthopédique émiratie.
+Après avoir vécu et étudié à Glasgow pour y apprendre l'anglais, elle étudie la médecine générale et la chirurgie en Chine (université médicale du Xinjiang). Elle se spécialise en orthopédie à l'université de Tianjin et devient la première femme chirurgienne orthopédique aux Émirats arabes unis. Elle travaille à l'hôpital militaire Zayed, à Abou Dabi, depuis 2007. 
+Elle meurt dans un accident de la route.
 </t>
         </is>
       </c>
